--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">П</t>
   </si>
   <si>
+    <t xml:space="preserve">Kод</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кремчиз "Unagrande", 70%, 0,5 кг, пл/с</t>
   </si>
   <si>
@@ -82,46 +85,73 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000085588</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кремчиз "Красная птица", 75%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Красная птица</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096632</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кремчиз "Pretto", 75%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Pretto</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000089213</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кремчиз "ВкусВилл", 70%, 0,18 кг, пл/с (6шт)</t>
   </si>
   <si>
     <t xml:space="preserve">ВкусВилл</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000093541</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кремчиз "Фермерская коллекция", 75%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Фермерская коллекция</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095395</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кремчиз "Unagrande", 70%, 0,18 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000085591</t>
+  </si>
+  <si>
     <t xml:space="preserve">Творожный "Фермерская коллекция", 65%,0,18 кг,пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Творожный</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095394</t>
+  </si>
+  <si>
     <t xml:space="preserve">Творожный "Pretto", 65%, 0,18 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000085590</t>
+  </si>
+  <si>
     <t xml:space="preserve">Робиола "Unagrande", 65%, 0,18 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Робиола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000086352</t>
   </si>
 </sst>
 </file>
@@ -131,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,6 +191,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,12 +249,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,8 +293,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,29 +358,31 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0.5</v>
@@ -368,25 +411,28 @@
       <c r="Q2" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R2" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>0.2</v>
@@ -394,13 +440,13 @@
       <c r="H3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <v>450</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>252</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -415,25 +461,28 @@
       <c r="Q3" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R3" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>0.2</v>
@@ -441,13 +490,13 @@
       <c r="H4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <v>450</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <v>252</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -462,25 +511,28 @@
       <c r="Q4" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R4" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.18</v>
@@ -488,7 +540,7 @@
       <c r="H5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <v>450</v>
       </c>
       <c r="L5" s="0" t="n">
@@ -509,25 +561,28 @@
       <c r="Q5" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R5" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.2</v>
@@ -535,13 +590,13 @@
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="5" t="n">
         <v>450</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="5" t="n">
         <v>252</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -556,25 +611,28 @@
       <c r="Q6" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R6" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.18</v>
@@ -582,13 +640,13 @@
       <c r="H7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="5" t="n">
         <v>450</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="5" t="n">
         <v>252</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -603,25 +661,28 @@
       <c r="Q7" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R7" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.18</v>
@@ -629,7 +690,7 @@
       <c r="H8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="5" t="n">
         <v>600</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -650,25 +711,28 @@
       <c r="Q8" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R8" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0.18</v>
@@ -676,13 +740,13 @@
       <c r="H9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="5" t="n">
         <v>600</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="5" t="n">
         <v>378</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -697,25 +761,28 @@
       <c r="Q9" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="R9" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.18</v>
@@ -723,13 +790,13 @@
       <c r="H10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="5" t="n">
         <v>450</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="5" t="n">
         <v>378</v>
       </c>
       <c r="N10" s="0" t="n">
@@ -743,6 +810,9 @@
       </c>
       <c r="Q10" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000086352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз "Pretto", 70%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз "Unagrande", 70%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097944</t>
   </si>
 </sst>
 </file>
@@ -193,10 +205,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -258,10 +269,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -271,6 +278,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,8 +304,8 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +369,7 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="1"/>
@@ -366,10 +377,10 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -381,7 +392,7 @@
       <c r="E2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -416,10 +427,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -431,7 +442,7 @@
       <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -440,13 +451,13 @@
       <c r="H3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="4" t="n">
         <v>450</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="4" t="n">
         <v>252</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -466,10 +477,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -481,7 +492,7 @@
       <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -490,13 +501,13 @@
       <c r="H4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="4" t="n">
         <v>450</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="4" t="n">
         <v>252</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -516,10 +527,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -531,7 +542,7 @@
       <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -540,7 +551,7 @@
       <c r="H5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="4" t="n">
         <v>450</v>
       </c>
       <c r="L5" s="0" t="n">
@@ -566,10 +577,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -581,7 +592,7 @@
       <c r="E6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="0" t="n">
@@ -590,13 +601,13 @@
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="4" t="n">
         <v>450</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="4" t="n">
         <v>252</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -616,10 +627,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -631,7 +642,7 @@
       <c r="E7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -640,13 +651,13 @@
       <c r="H7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="4" t="n">
         <v>450</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="4" t="n">
         <v>252</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -666,10 +677,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -681,7 +692,7 @@
       <c r="E8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -690,7 +701,7 @@
       <c r="H8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="4" t="n">
         <v>600</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -716,10 +727,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -731,7 +742,7 @@
       <c r="E9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -740,13 +751,13 @@
       <c r="H9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="4" t="n">
         <v>600</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="4" t="n">
         <v>378</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -765,11 +776,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -781,7 +792,7 @@
       <c r="E10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -790,13 +801,13 @@
       <c r="H10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="4" t="n">
         <v>450</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="4" t="n">
         <v>378</v>
       </c>
       <c r="N10" s="0" t="n">
@@ -813,6 +824,106 @@
       </c>
       <c r="R10" s="0" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Робиола "Unagrande", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097945</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -209,6 +215,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -232,6 +257,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCC085"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCC085"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCC085"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCC085"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -260,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,6 +325,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -294,6 +346,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCC085"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -305,7 +417,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -316,7 +428,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="14" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="19" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -876,7 +990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -924,6 +1038,56 @@
       </c>
       <c r="R12" s="5" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>378</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -170,6 +170,24 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз с паприкой "Pretto", 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз с томатами "Pretto", 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз с травами "Pretto", 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098198</t>
   </si>
 </sst>
 </file>
@@ -179,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -219,21 +237,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,16 +337,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -417,7 +425,7 @@
   <dimension ref="A1:U1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1044,13 +1052,13 @@
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -1086,8 +1094,149 @@
       <c r="Q13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="6" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>252</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -197,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,25 +228,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -269,21 +250,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFCCC085"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCC085"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCC085"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCC085"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -312,37 +278,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -354,66 +296,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCC085"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -422,27 +304,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1048576"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="19" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,15 +367,12 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -514,7 +384,7 @@
       <c r="E2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="0" t="n">
@@ -548,11 +418,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -564,7 +434,7 @@
       <c r="E3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="0" t="n">
@@ -573,13 +443,13 @@
       <c r="H3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="0" t="n">
         <v>450</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N3" s="0" t="n">
@@ -598,11 +468,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -614,7 +484,7 @@
       <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="0" t="n">
@@ -623,13 +493,13 @@
       <c r="H4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="0" t="n">
         <v>450</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -648,11 +518,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -664,7 +534,7 @@
       <c r="E5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="0" t="n">
@@ -673,7 +543,7 @@
       <c r="H5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="0" t="n">
         <v>450</v>
       </c>
       <c r="L5" s="0" t="n">
@@ -698,11 +568,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -714,7 +584,7 @@
       <c r="E6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="0" t="n">
@@ -723,13 +593,13 @@
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="0" t="n">
         <v>450</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N6" s="0" t="n">
@@ -748,11 +618,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -764,7 +634,7 @@
       <c r="E7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -773,13 +643,13 @@
       <c r="H7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="0" t="n">
         <v>450</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N7" s="0" t="n">
@@ -798,11 +668,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -814,7 +684,7 @@
       <c r="E8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="0" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -823,7 +693,7 @@
       <c r="H8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="0" t="n">
         <v>600</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -848,11 +718,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -864,7 +734,7 @@
       <c r="E9" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -873,13 +743,13 @@
       <c r="H9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="n">
+      <c r="J9" s="0" t="n">
         <v>600</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="0" t="n">
         <v>378</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -898,11 +768,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -914,7 +784,7 @@
       <c r="E10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -923,13 +793,13 @@
       <c r="H10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J10" s="4" t="n">
+      <c r="J10" s="0" t="n">
         <v>450</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="0" t="n">
         <v>378</v>
       </c>
       <c r="N10" s="0" t="n">
@@ -948,11 +818,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="0" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -964,7 +834,7 @@
       <c r="E11" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -994,15 +864,15 @@
       <c r="Q11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1014,7 +884,7 @@
       <c r="E12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="0" t="n">
@@ -1044,27 +914,27 @@
       <c r="Q12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -1079,7 +949,7 @@
       <c r="L13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="0" t="n">
         <v>378</v>
       </c>
       <c r="N13" s="0" t="n">
@@ -1094,24 +964,27 @@
       <c r="Q13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -1126,7 +999,7 @@
       <c r="L14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N14" s="0" t="n">
@@ -1141,24 +1014,27 @@
       <c r="Q14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -1173,7 +1049,7 @@
       <c r="L15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N15" s="0" t="n">
@@ -1188,24 +1064,27 @@
       <c r="Q15" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -1220,7 +1099,7 @@
       <c r="L16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="0" t="n">
         <v>252</v>
       </c>
       <c r="N16" s="0" t="n">
@@ -1235,30 +1114,10 @@
       <c r="Q16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">Название форм фактора</t>
   </si>
   <si>
+    <t xml:space="preserve">Наличие лактозы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вкусовая добавка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Линия</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t xml:space="preserve">Кремчиз</t>
   </si>
   <si>
+    <t xml:space="preserve">Да</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне</t>
   </si>
   <si>
@@ -175,19 +184,37 @@
     <t xml:space="preserve">Кремчиз с паприкой "Pretto", 70%, 0,14 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Паприка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Н0000098196</t>
   </si>
   <si>
     <t xml:space="preserve">Кремчиз с томатами "Pretto", 70%, 0,14 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Томаты</t>
+  </si>
+  <si>
     <t xml:space="preserve">Н0000098197</t>
   </si>
   <si>
     <t xml:space="preserve">Кремчиз с травами "Pretto", 70%, 0,14 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Травы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Н0000098198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз без лактозы "Unagrande", 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098398</t>
   </si>
 </sst>
 </file>
@@ -278,13 +305,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -304,18 +339,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,755 +404,868 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J2" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P2" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J3" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P3" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P4" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J5" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P5" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P6" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P7" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="O8" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P8" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P9" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J10" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P10" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J11" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P11" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J12" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P12" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J13" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P13" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J14" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P14" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J15" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P15" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J16" s="0" t="n">
-        <v>450</v>
+        <v>6</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="P16" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный "Pretto", 65%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097368</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,6 +260,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +337,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,10 +365,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1215,7 +1241,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1266,6 +1292,59 @@
       </c>
       <c r="T17" s="0" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз "Зеленая линия", 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098466</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,13 +271,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,10 +345,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -365,10 +362,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,7 +1291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -1313,7 +1310,7 @@
       <c r="G18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -1343,8 +1340,61 @@
       <c r="S18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз "Фермерская коллекция", 70%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098695</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -273,6 +279,18 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,7 +342,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,6 +363,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -362,10 +388,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1344,7 +1370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1395,6 +1421,59 @@
       </c>
       <c r="T19" s="0" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз "ВкусВилл", 70%, 0,2 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098693</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -281,16 +287,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,12 +364,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -388,10 +385,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1442,7 +1439,7 @@
       <c r="G20" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -1472,8 +1469,61 @@
       <c r="S20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="4" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -239,6 +239,21 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз с паприкой "ВкусВилл", 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000099330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Робиола "Избёнка", 65%, 0,18 кг, пл/с (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избёнка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000093542</t>
   </si>
 </sst>
 </file>
@@ -283,15 +298,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,16 +369,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -385,17 +394,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,11 +1271,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1280,7 +1290,7 @@
       <c r="G17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="0" t="n">
@@ -1314,11 +1324,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1333,7 +1343,7 @@
       <c r="G18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="0" t="s">
         <v>29</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -1363,15 +1373,15 @@
       <c r="S18" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="0" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="0" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1420,11 +1430,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="0" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -1439,7 +1449,7 @@
       <c r="G20" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="0" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -1469,12 +1479,12 @@
       <c r="S20" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -1524,6 +1534,115 @@
       </c>
       <c r="T21" s="0" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000093542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз "Pretto" с огурцом, 70%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Огурец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006403</t>
   </si>
 </sst>
 </file>
@@ -295,16 +304,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +378,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -394,10 +409,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1592,7 +1607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1643,6 +1658,62 @@
       </c>
       <c r="T23" s="4" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Нет</t>
   </si>
   <si>
-    <t xml:space="preserve">Н0000098398</t>
+    <t xml:space="preserve">Н0000098397</t>
   </si>
   <si>
     <t xml:space="preserve">Творожный "Pretto", 65%, 0,2 кг, пл/с</t>
@@ -272,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,6 +302,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -367,13 +373,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -384,11 +394,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V29" activeCellId="0" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1335,7 +1345,7 @@
       <c r="S17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T17" s="0" t="s">
+      <c r="T17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1555,7 +1565,7 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1573,7 +1583,7 @@
       <c r="G22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="0" t="n">
@@ -1603,7 +1613,7 @@
       <c r="S22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1611,7 +1621,7 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1626,7 +1636,7 @@
       <c r="G23" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I23" s="0" t="n">
@@ -1656,7 +1666,7 @@
       <c r="S23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1664,7 +1674,7 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1682,7 +1692,7 @@
       <c r="G24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="0" t="n">
@@ -1712,7 +1722,7 @@
       <c r="S24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" s="6" t="s">
         <v>80</v>
       </c>
     </row>

--- a/app/data/static/params/creamcheese.xlsx
+++ b/app/data/static/params/creamcheese.xlsx
@@ -256,7 +256,7 @@
     <t xml:space="preserve">Н0000093542</t>
   </si>
   <si>
-    <t xml:space="preserve">Кремчиз "Pretto" с огурцом, 70%, 0,14 кг, пл/с</t>
+    <t xml:space="preserve">Кремчиз с огурцом "Pretto", 70%, 0,14 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Огурец</t>
@@ -272,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,19 +308,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -373,7 +367,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,10 +392,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -421,8 +411,8 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V29" activeCellId="0" sqref="V29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1670,7 +1660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1722,7 +1712,7 @@
       <c r="S24" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="2" t="s">
         <v>80</v>
       </c>
     </row>
